--- a/GAMS/AQ_LEWIE_InputSheet_v1.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v1.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="280">
   <si>
     <t>Variable</t>
   </si>
@@ -894,12 +894,6 @@
     <t>QP</t>
   </si>
   <si>
-    <t>cshare</t>
-  </si>
-  <si>
-    <t>cshare_se</t>
-  </si>
-  <si>
     <t>meat</t>
   </si>
   <si>
@@ -951,15 +945,6 @@
     <t>fshare_se</t>
   </si>
   <si>
-    <t>shiftpar</t>
-  </si>
-  <si>
-    <t>shiftpar_se</t>
-  </si>
-  <si>
-    <t>intdsh</t>
-  </si>
-  <si>
     <t>QUANTITY PRODUCED</t>
   </si>
   <si>
@@ -999,12 +984,6 @@
     <t>Share of inputs from outside</t>
   </si>
   <si>
-    <t>savings</t>
-  </si>
-  <si>
-    <t>savings_se</t>
-  </si>
-  <si>
     <t>transfin_se</t>
   </si>
   <si>
@@ -1048,6 +1027,30 @@
   </si>
   <si>
     <t>Input!B4</t>
+  </si>
+  <si>
+    <t>eshare</t>
+  </si>
+  <si>
+    <t>eshare_se</t>
+  </si>
+  <si>
+    <t>emin</t>
+  </si>
+  <si>
+    <t>pshift</t>
+  </si>
+  <si>
+    <t>pshift_se</t>
+  </si>
+  <si>
+    <t>idsh</t>
+  </si>
+  <si>
+    <t>savsh</t>
+  </si>
+  <si>
+    <t>savsh_se</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1857,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2815,6 +2818,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3204,7 +3209,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -3218,7 +3223,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -3232,7 +3237,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -3246,7 +3251,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -3274,7 +3279,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
@@ -9423,10 +9428,10 @@
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20:B26"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9451,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -9525,22 +9530,22 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="516" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G4" s="516" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H4" s="516" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I4" s="516" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J4" s="517" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K4" s="517" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -9549,7 +9554,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="446" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C5" s="446"/>
       <c r="D5" s="446"/>
@@ -9575,11 +9580,11 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="518" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="247" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C6" s="247" t="s">
         <v>53</v>
@@ -9613,14 +9618,14 @@
       <c r="L6" s="242"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>17</v>
+      <c r="A7" s="90" t="s">
+        <v>227</v>
       </c>
       <c r="B7" s="247" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="247" t="s">
         <v>227</v>
-      </c>
-      <c r="C7" s="247" t="s">
-        <v>229</v>
       </c>
       <c r="D7" s="247"/>
       <c r="E7" s="247"/>
@@ -9651,14 +9656,14 @@
       <c r="L7" s="242"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
-        <v>18</v>
+      <c r="A8" s="90" t="s">
+        <v>228</v>
       </c>
       <c r="B8" s="247" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C8" s="247" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="247"/>
       <c r="E8" s="247"/>
@@ -9689,14 +9694,14 @@
       <c r="L8" s="242"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>51</v>
+      <c r="A9" s="90" t="s">
+        <v>230</v>
       </c>
       <c r="B9" s="247" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C9" s="247" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="247"/>
       <c r="E9" s="247"/>
@@ -9727,11 +9732,11 @@
       <c r="L9" s="242"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>54</v>
+      <c r="A10" s="90" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="247" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C10" s="247" t="s">
         <v>18</v>
@@ -9765,14 +9770,14 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="514" t="s">
-        <v>268</v>
+      <c r="A11" s="90" t="s">
+        <v>229</v>
       </c>
       <c r="B11" s="247" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C11" s="247" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="247"/>
       <c r="E11" s="247"/>
@@ -9803,14 +9808,14 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="514" t="s">
-        <v>269</v>
+      <c r="A12" s="519" t="s">
+        <v>231</v>
       </c>
       <c r="B12" s="247" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C12" s="247" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D12" s="247"/>
       <c r="E12" s="247"/>
@@ -9842,10 +9847,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="514" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B13" s="265" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C13" s="266" t="s">
         <v>53</v>
@@ -9877,18 +9882,18 @@
         <v>2.5517127421595391E-2</v>
       </c>
       <c r="L13" s="255" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="514" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B14" s="265" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C14" s="268" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" s="268"/>
       <c r="E14" s="269"/>
@@ -9919,14 +9924,14 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="515" t="s">
-        <v>272</v>
+      <c r="A15" s="514" t="s">
+        <v>263</v>
       </c>
       <c r="B15" s="265" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="268" t="s">
         <v>228</v>
-      </c>
-      <c r="C15" s="268" t="s">
-        <v>230</v>
       </c>
       <c r="D15" s="268"/>
       <c r="E15" s="269"/>
@@ -9957,14 +9962,14 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="515" t="s">
+      <c r="A16" s="514" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="265" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="265" t="s">
-        <v>228</v>
-      </c>
       <c r="C16" s="268" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D16" s="268"/>
       <c r="E16" s="269"/>
@@ -9995,11 +10000,11 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>80</v>
+      <c r="A17" s="515" t="s">
+        <v>265</v>
       </c>
       <c r="B17" s="265" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C17" s="268" t="s">
         <v>18</v>
@@ -10033,11 +10038,14 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="515" t="s">
+        <v>266</v>
+      </c>
       <c r="B18" s="265" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C18" s="268" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="268"/>
       <c r="E18" s="269"/>
@@ -10068,11 +10076,14 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="B19" s="265" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C19" s="270" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D19" s="270"/>
       <c r="E19" s="271"/>
@@ -10104,7 +10115,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C20" s="273" t="s">
         <v>53</v>
@@ -10118,16 +10129,15 @@
       <c r="J20" s="249"/>
       <c r="K20" s="249"/>
       <c r="L20" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
       <c r="B21" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C21" s="248" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" s="248"/>
       <c r="E21" s="275"/>
@@ -10140,12 +10150,11 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
       <c r="B22" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C22" s="248" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" s="248"/>
       <c r="E22" s="275"/>
@@ -10158,12 +10167,11 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
       <c r="B23" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C23" s="248" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D23" s="248"/>
       <c r="E23" s="275"/>
@@ -10176,9 +10184,8 @@
       <c r="L23" s="242"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
       <c r="B24" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C24" s="248" t="s">
         <v>18</v>
@@ -10194,12 +10201,11 @@
       <c r="L24" s="242"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
       <c r="B25" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C25" s="248" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" s="248"/>
       <c r="E25" s="275"/>
@@ -10214,10 +10220,10 @@
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="272" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C26" s="276" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D26" s="276"/>
       <c r="E26" s="277"/>
@@ -10248,7 +10254,7 @@
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="251" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C28" s="248"/>
       <c r="D28" s="248"/>
@@ -10280,7 +10286,7 @@
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="251" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C30" s="248"/>
       <c r="D30" s="248"/>
@@ -10296,7 +10302,7 @@
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="251" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C31" s="248"/>
       <c r="D31" s="248"/>
@@ -10312,7 +10318,7 @@
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="251" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C32" s="248"/>
       <c r="D32" s="248"/>
@@ -10348,13 +10354,13 @@
       <c r="J33" s="358"/>
       <c r="K33" s="358"/>
       <c r="L33" s="243" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="284" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C34" s="285" t="s">
         <v>221</v>
@@ -10370,18 +10376,18 @@
       <c r="J34" s="325"/>
       <c r="K34" s="325"/>
       <c r="L34" s="243" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="287" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>221</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E35" s="288"/>
       <c r="F35" s="325"/>
@@ -10395,13 +10401,13 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="287" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36" s="288"/>
       <c r="F36" s="325"/>
@@ -10415,13 +10421,13 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="287" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C37" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>232</v>
       </c>
       <c r="E37" s="288"/>
       <c r="F37" s="325"/>
@@ -10434,10 +10440,10 @@
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="287" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>18</v>
@@ -10454,13 +10460,13 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="287" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E39" s="288"/>
       <c r="F39" s="325"/>
@@ -10474,13 +10480,13 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="289" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C40" s="290" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D40" s="290" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E40" s="291"/>
       <c r="F40" s="325"/>
@@ -10493,7 +10499,7 @@
     </row>
     <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="278" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C41" s="279" t="s">
         <v>221</v>
@@ -10515,13 +10521,13 @@
       <c r="J41" s="256"/>
       <c r="K41" s="256"/>
       <c r="L41" s="243" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="278" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C42" s="279" t="s">
         <v>221</v>
@@ -10547,7 +10553,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="278" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C43" s="279" t="s">
         <v>221</v>
@@ -10573,7 +10579,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="281" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C44" s="282" t="s">
         <v>221</v>
@@ -10599,7 +10605,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="284" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" s="285" t="s">
         <v>221</v>
@@ -10621,13 +10627,13 @@
       <c r="J45" s="260"/>
       <c r="K45" s="260"/>
       <c r="L45" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="287" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>221</v>
@@ -10653,7 +10659,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="287" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>221</v>
@@ -10679,7 +10685,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="287" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>221</v>
@@ -10705,7 +10711,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="299" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C49" s="300" t="s">
         <v>221</v>
@@ -10725,13 +10731,13 @@
       <c r="J49" s="345"/>
       <c r="K49" s="345"/>
       <c r="L49" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="302" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C50" s="303" t="s">
         <v>221</v>
@@ -10751,7 +10757,7 @@
       <c r="J50" s="348"/>
       <c r="K50" s="348"/>
       <c r="L50" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -10777,13 +10783,13 @@
       </c>
       <c r="K51" s="360"/>
       <c r="L51" s="243" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="305" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C52" s="306" t="s">
         <v>53</v>
@@ -10799,19 +10805,19 @@
       <c r="J52" s="314"/>
       <c r="K52" s="314"/>
       <c r="L52" s="243" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="308" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C53" s="309" t="s">
         <v>53</v>
       </c>
       <c r="D53" s="309" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E53" s="310"/>
       <c r="F53" s="314"/>
@@ -10825,13 +10831,13 @@
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="308" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C54" s="309" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="309" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54" s="310"/>
       <c r="F54" s="314"/>
@@ -10845,13 +10851,13 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="308" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C55" s="309" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="309" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E55" s="310"/>
       <c r="F55" s="314"/>
@@ -10865,7 +10871,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="308" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C56" s="309" t="s">
         <v>53</v>
@@ -10885,13 +10891,13 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="308" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C57" s="309" t="s">
         <v>53</v>
       </c>
       <c r="D57" s="309" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E57" s="310"/>
       <c r="F57" s="314"/>
@@ -10905,13 +10911,13 @@
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="311" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C58" s="309" t="s">
         <v>53</v>
       </c>
       <c r="D58" s="312" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" s="313"/>
       <c r="F58" s="314"/>
@@ -10925,7 +10931,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="292" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C59" s="293" t="s">
         <v>4</v>
@@ -10947,12 +10953,12 @@
       </c>
       <c r="K59" s="349"/>
       <c r="L59" s="243" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="294" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C60" s="295" t="s">
         <v>4</v>
@@ -10978,7 +10984,7 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="294" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C61" s="295" t="s">
         <v>4</v>
@@ -11004,7 +11010,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="297" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C62" s="298" t="s">
         <v>4</v>
@@ -11029,7 +11035,7 @@
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="308" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C63" s="309" t="s">
         <v>4</v>
@@ -11051,13 +11057,13 @@
       </c>
       <c r="K63" s="314"/>
       <c r="L63" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="308" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C64" s="309" t="s">
         <v>4</v>
@@ -11083,7 +11089,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="308" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C65" s="309" t="s">
         <v>4</v>
@@ -11108,7 +11114,7 @@
     </row>
     <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="308" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C66" s="309" t="s">
         <v>4</v>
@@ -11133,7 +11139,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="292" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C67" s="293" t="s">
         <v>4</v>
@@ -11153,13 +11159,13 @@
       </c>
       <c r="K67" s="353"/>
       <c r="L67" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="297" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C68" s="298" t="s">
         <v>4</v>
@@ -11179,7 +11185,7 @@
       </c>
       <c r="K68" s="355"/>
       <c r="L68" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -11188,7 +11194,7 @@
         <v>226</v>
       </c>
       <c r="C69" s="363" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D69" s="363"/>
       <c r="E69" s="363"/>
@@ -11217,16 +11223,16 @@
         <v>285.79000854492188</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="369" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C70" s="370" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D70" s="370" t="s">
         <v>53</v>
@@ -11243,13 +11249,13 @@
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="372" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C71" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D71" s="373" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E71" s="374"/>
       <c r="F71" s="419"/>
@@ -11263,13 +11269,13 @@
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="372" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C72" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D72" s="373" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E72" s="374"/>
       <c r="F72" s="419"/>
@@ -11283,13 +11289,13 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="372" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C73" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D73" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E73" s="374"/>
       <c r="F73" s="419"/>
@@ -11303,10 +11309,10 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="372" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C74" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D74" s="373" t="s">
         <v>18</v>
@@ -11340,13 +11346,13 @@
     </row>
     <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="372" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C75" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D75" s="373" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E75" s="374"/>
       <c r="F75" s="419"/>
@@ -11360,13 +11366,13 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="375" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C76" s="376" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D76" s="376" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E76" s="377"/>
       <c r="F76" s="419">
@@ -11398,10 +11404,10 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="362" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C77" s="363" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="363"/>
       <c r="E77" s="363" t="s">
@@ -11436,10 +11442,10 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="364" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78" s="365" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="365"/>
       <c r="E78" s="365" t="s">
@@ -11455,10 +11461,10 @@
     </row>
     <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="364" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C79" s="365" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="365"/>
       <c r="E79" s="365" t="s">
@@ -11492,10 +11498,10 @@
     </row>
     <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="366" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C80" s="367" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="367"/>
       <c r="E80" s="367" t="s">
@@ -11511,10 +11517,10 @@
     </row>
     <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="372" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C81" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="373"/>
       <c r="E81" s="373" t="s">
@@ -11548,10 +11554,10 @@
     </row>
     <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="372" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C82" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="373"/>
       <c r="E82" s="373" t="s">
@@ -11567,10 +11573,10 @@
     </row>
     <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="372" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C83" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="373"/>
       <c r="E83" s="373" t="s">
@@ -11586,10 +11592,10 @@
     </row>
     <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="372" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C84" s="373" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="373"/>
       <c r="E84" s="373" t="s">
@@ -11605,10 +11611,10 @@
     </row>
     <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="362" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C85" s="363" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D85" s="363"/>
       <c r="E85" s="363"/>
@@ -11622,10 +11628,10 @@
     </row>
     <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="366" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C86" s="367" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" s="367"/>
       <c r="E86" s="367"/>
@@ -11642,7 +11648,7 @@
         <v>226</v>
       </c>
       <c r="C87" s="388" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="388"/>
       <c r="E87" s="388"/>
@@ -11671,15 +11677,15 @@
         <v>278.489990234375</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="378" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C88" s="379" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D88" s="379" t="s">
         <v>53</v>
@@ -11695,13 +11701,13 @@
     </row>
     <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="381" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C89" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D89" s="382" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E89" s="383"/>
       <c r="F89" s="429"/>
@@ -11714,13 +11720,13 @@
     </row>
     <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="381" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C90" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D90" s="382" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E90" s="383"/>
       <c r="F90" s="429"/>
@@ -11733,13 +11739,13 @@
     </row>
     <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="381" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C91" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D91" s="382" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E91" s="383"/>
       <c r="F91" s="429"/>
@@ -11752,10 +11758,10 @@
     </row>
     <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="381" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C92" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D92" s="382" t="s">
         <v>18</v>
@@ -11789,13 +11795,13 @@
     </row>
     <row r="93" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="381" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C93" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D93" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E93" s="383"/>
       <c r="F93" s="429"/>
@@ -11809,13 +11815,13 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="384" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C94" s="385" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="385" t="s">
         <v>231</v>
-      </c>
-      <c r="D94" s="385" t="s">
-        <v>233</v>
       </c>
       <c r="E94" s="386"/>
       <c r="F94" s="429">
@@ -11847,10 +11853,10 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="387" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C95" s="388" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" s="388"/>
       <c r="E95" s="388" t="s">
@@ -11885,10 +11891,10 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="390" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="391" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D96" s="391"/>
       <c r="E96" s="391" t="s">
@@ -11904,10 +11910,10 @@
     </row>
     <row r="97" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="390" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C97" s="391" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D97" s="391"/>
       <c r="E97" s="391" t="s">
@@ -11942,10 +11948,10 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="392" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C98" s="393" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D98" s="393"/>
       <c r="E98" s="393" t="s">
@@ -11962,10 +11968,10 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="381" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C99" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D99" s="382"/>
       <c r="E99" s="382" t="s">
@@ -12000,10 +12006,10 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="381" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C100" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D100" s="382"/>
       <c r="E100" s="382" t="s">
@@ -12020,10 +12026,10 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="381" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C101" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D101" s="382"/>
       <c r="E101" s="382" t="s">
@@ -12040,10 +12046,10 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="381" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" s="382" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D102" s="382"/>
       <c r="E102" s="382" t="s">
@@ -12060,10 +12066,10 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="387" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C103" s="388" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D103" s="388"/>
       <c r="E103" s="388"/>
@@ -12078,10 +12084,10 @@
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="392" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C104" s="393" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D104" s="393"/>
       <c r="E104" s="393"/>
@@ -12128,13 +12134,13 @@
         <v>1858.489990234375</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="409" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C106" s="410" t="s">
         <v>18</v>
@@ -12154,13 +12160,13 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="412" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C107" s="413" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="413" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E107" s="414"/>
       <c r="F107" s="437"/>
@@ -12174,13 +12180,13 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="412" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C108" s="413" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="413" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E108" s="414"/>
       <c r="F108" s="437"/>
@@ -12194,13 +12200,13 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="412" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C109" s="413" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="413" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E109" s="414"/>
       <c r="F109" s="437"/>
@@ -12214,7 +12220,7 @@
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="412" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C110" s="413" t="s">
         <v>18</v>
@@ -12252,13 +12258,13 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="412" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C111" s="413" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="413" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E111" s="414"/>
       <c r="F111" s="437"/>
@@ -12272,13 +12278,13 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="415" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C112" s="416" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="416" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E112" s="417"/>
       <c r="F112" s="437">
@@ -12310,7 +12316,7 @@
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="398" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C113" s="399" t="s">
         <v>18</v>
@@ -12348,7 +12354,7 @@
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="401" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C114" s="402" t="s">
         <v>18</v>
@@ -12368,7 +12374,7 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="401" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C115" s="402" t="s">
         <v>18</v>
@@ -12406,7 +12412,7 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="403" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C116" s="404" t="s">
         <v>18</v>
@@ -12425,7 +12431,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B117" s="412" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" s="413" t="s">
         <v>18</v>
@@ -12462,7 +12468,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B118" s="412" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C118" s="413" t="s">
         <v>18</v>
@@ -12481,7 +12487,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B119" s="412" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C119" s="413" t="s">
         <v>18</v>
@@ -12500,7 +12506,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B120" s="412" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C120" s="413" t="s">
         <v>18</v>
@@ -12519,7 +12525,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B121" s="398" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C121" s="399" t="s">
         <v>18</v>
@@ -12536,7 +12542,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122" s="403" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C122" s="404" t="s">
         <v>18</v>
@@ -18005,7 +18011,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C3" s="241">
         <v>426.89999389648438</v>
@@ -18051,7 +18057,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C5">
         <v>11361.66015625</v>
@@ -18228,7 +18234,7 @@
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="35" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>205</v>
@@ -18269,10 +18275,10 @@
     </row>
     <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -18370,7 +18376,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" s="223">
         <v>1311.3893793742172</v>
@@ -18393,10 +18399,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="223">
         <v>907.71309493854642</v>
@@ -18419,10 +18425,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="223">
         <v>435.30898314155638</v>
@@ -18445,10 +18451,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" s="223">
         <v>207.41290932893753</v>
@@ -18474,7 +18480,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="223">
         <v>2790.021649543196</v>
@@ -18497,10 +18503,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="223">
         <v>1412.1290041585453</v>
@@ -18523,10 +18529,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" s="223">
         <v>3792.4625939256512</v>
@@ -18575,7 +18581,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="157" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -18603,7 +18609,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C14" s="246">
         <f>C3/C$10</f>
@@ -18632,10 +18638,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C15" s="246">
         <f t="shared" ref="C15:H20" si="2">C4/C$10</f>
@@ -18664,10 +18670,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="246">
         <f t="shared" si="2"/>
@@ -18696,10 +18702,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="246">
         <f t="shared" si="2"/>
@@ -18731,7 +18737,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="246">
         <f t="shared" si="2"/>
@@ -18760,10 +18766,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C19" s="246">
         <f t="shared" si="2"/>
@@ -18792,10 +18798,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="246">
         <f t="shared" si="2"/>
